--- a/biology/Zoologie/Castor_(animal)/Castor_(animal).xlsx
+++ b/biology/Zoologie/Castor_(animal)/Castor_(animal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Castor est le nom vernaculaire donné à certaines espèces de rongeurs de plusieurs familles distinctes. En effet ces gros rongeurs ne font pas tous partie du genre Castor bien que leur aspect ou leurs habitudes aquatiques puissent le laisser penser.
 </t>
@@ -511,48 +523,54 @@
           <t>Biologie, comportement et écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caractéristiques générales des castors sont celles des rongeurs, avec des différences pour chaque espèce : voir les articles détaillés pour plus d'informations, notamment sur leur constitution physique ou leur mode de vie respectif.
-Caractéristiques communes
-Ce sont tous des rongeurs appartenant à la famille des Castoridae dont les espèces actuelles sont de taille importante (pour des rongeurs), à poil dru gris-brun, avec de petites oreilles, de petits yeux et de grandes dents. Ils sont semi-aquatiques et vivent le plus souvent à proximité de zones boisées ou le long de berges végétalisées de grands cours d'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Castor_(animal)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Castor_(animal)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biologie, comportement et écologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques communes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont tous des rongeurs appartenant à la famille des Castoridae dont les espèces actuelles sont de taille importante (pour des rongeurs), à poil dru gris-brun, avec de petites oreilles, de petits yeux et de grandes dents. Ils sont semi-aquatiques et vivent le plus souvent à proximité de zones boisées ou le long de berges végétalisées de grands cours d'eau.
 Les Castor de la famille des Castoridae sont à discerner du castor de montagne (Aplodontia rufa, famille des Aplodontidae ), ressemblant à un Castoridae mais non aquatique, habitant des montagnes humides. De même, le ragondin (famille des rats Echimyidae), appelé parfois « castor des marais » et qui habite les zones marécageuses.
 La progressive disparition des espèces du genre Castor en Europe puis leur raréfaction en Amérique du Nord aux XVIIIe et XIXe siècles sont dues au commerce de la fourrure, de la viande et du castoréum (sécrétion huileuse très odorante) ainsi qu'à la destruction de leur habitat.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Castor_(animal)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Castor_(animal)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Risques d'invasivité</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces castors sont considérés comme faisant partie des espèces-ingénieur ou espèces facilitatrices naturellement inféodées à certains types de berges, zones humides et cours d'eau. Ils ne sont pas invasifs, sauf dans un cas : en Amérique du Sud, là où des castors canadiens ont été introduits hors de leur aire naturelle de répartition comme source de fourrure (où ils peuvent avoir un comportement d'espèce invasive et où les arbres ne sont pas adaptés à leur présence car ne pouvant généralement pas recéper en formant de nouvelles pousses, comme c'est le cas dans l'hémisphère nord).
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -574,10 +592,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Risques d'invasivité</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces castors sont considérés comme faisant partie des espèces-ingénieur ou espèces facilitatrices naturellement inféodées à certains types de berges, zones humides et cours d'eau. Ils ne sont pas invasifs, sauf dans un cas : en Amérique du Sud, là où des castors canadiens ont été introduits hors de leur aire naturelle de répartition comme source de fourrure (où ils peuvent avoir un comportement d'espèce invasive et où les arbres ne sont pas adaptés à leur présence car ne pouvant généralement pas recéper en formant de nouvelles pousses, comme c'est le cas dans l'hémisphère nord).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Castor_(animal)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Castor_(animal)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Identifier les espèces contemporaines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Les « castors » actuels
@@ -593,85 +646,56 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Castor_(animal)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Castor_(animal)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés[2] en français.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés en français.
 Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide. En gras, les espèces les plus connues des francophones.
-Au pluriel, Castors, peut désigner selon les auteurs le genre Castor[3],[4] ou le genre Aplodontia[3], ou bien encore la famille des Castoridae en général[4].
+Au pluriel, Castors, peut désigner selon les auteurs le genre Castor, ou le genre Aplodontia, ou bien encore la famille des Castoridae en général.
 Au singulier :
-Castor - Castor canadensis[5],[6],[7] ou Castor fiber[3],[4] ou Castoridae[5]
-Castor d'Europe - Castor fiber[3],[4]
-Castor du Canada - Castor canadensis[3],[6],[7],[4]
-Castor commun - voir Castor d'Europe[3],[4]
-Castor d'Eurasie - voir Castor d'Europe[3],[4]
-Castor de Scandinavie - la sous-espèce Castor fiber fiber[4]
-Castor de la Plata - voir Castor des marais[8]
-Castor de l'Elbe - la sous-espèce Castor fiber albicus[4]
-Castor de montagne - Aplodontia rufa[3],[6],[4]
-Castor des marais - Myocastor coypus[8]
-Castor du Chili - voir Castor des marais[3],[8]
-Castor du Rhone - la sous-espèce Castor fiber galliae[4]
-Castor eurasien - voir Castor d'Europe[7]
+Castor - Castor canadensis ou Castor fiber, ou Castoridae
+Castor d'Europe - Castor fiber,
+Castor du Canada - Castor canadensis
+Castor commun - voir Castor d'Europe,
+Castor d'Eurasie - voir Castor d'Europe,
+Castor de Scandinavie - la sous-espèce Castor fiber fiber
+Castor de la Plata - voir Castor des marais
+Castor de l'Elbe - la sous-espèce Castor fiber albicus
+Castor de montagne - Aplodontia rufa
+Castor des marais - Myocastor coypus
+Castor du Chili - voir Castor des marais,
+Castor du Rhone - la sous-espèce Castor fiber galliae
+Castor eurasien - voir Castor d'Europe
 † Castor géant de Floride - Castoroides leiseyorum, espèce éteinte
 † Castor géant du Nebraska - Castoroides ohioensis, espèce éteinte
 Castor géant - genre Castoroides, éteint
-Castor rhodanien - voir Castor du Rhône[4]
+Castor rhodanien - voir Castor du Rhône
 Castor vendéen</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Castor_(animal)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Castor_(animal)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Consommation</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ragoût de castor est un plat traditionnel lituanien.
-</t>
         </is>
       </c>
     </row>
@@ -696,10 +720,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Consommation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ragoût de castor est un plat traditionnel lituanien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Castor_(animal)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Castor_(animal)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Timbre poste</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 16 septembre 1991, l'administration des PTT émet un timbre-poste représentant « Le castor ». La dessinatrice du timbre est Huguette Sainson.
 </t>
